--- a/01 Raw/produtores/Monapo/Lista_presenças_Monapo S09.xlsx
+++ b/01 Raw/produtores/Monapo/Lista_presenças_Monapo S09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muvamozorg-my.sharepoint.com/personal/janio_muianga_muvamoz_org/Documents/Departamento MIS/PROJECTOS/SISTEMA DE MONITORIA/Considera/considera_ciclo3/01 Raw/produtores/Macoca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\01 Raw\produtores\Monapo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{AF0F97BC-B111-4390-AD8A-B41C9BE73658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D3EB170-184C-428B-A78C-EC9BD8B0AFE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452DB3B-DD65-45D2-8CF9-EF834F7DB40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1050" windowWidth="12620" windowHeight="9750" activeTab="1" xr2:uid="{FB114E4F-E4A9-47BC-8427-63B431FF3E38}"/>
+    <workbookView xWindow="7908" yWindow="0" windowWidth="12696" windowHeight="12240" activeTab="1" xr2:uid="{FB114E4F-E4A9-47BC-8427-63B431FF3E38}"/>
   </bookViews>
   <sheets>
     <sheet name="AP-MA-02" sheetId="2" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>Presença (1- PRESENTE, 0 - AUSENTE, 2-DESISTENTE)</t>
   </si>
   <si>
-    <t>TPC (FOTOVOICE) 1-SIM; 0- NÃO</t>
-  </si>
-  <si>
-    <t>Apresentou o TPC em planario (1-SIM, 0-NÃO)</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -399,7 +393,13 @@
     <t>MA00061</t>
   </si>
   <si>
-    <t>Percentegem de engajamento da turma</t>
+    <t>FormacaoPI</t>
+  </si>
+  <si>
+    <t>NomeSessao</t>
+  </si>
+  <si>
+    <t>deslocado</t>
   </si>
 </sst>
 </file>
@@ -882,24 +882,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3191EB0F-8B91-4469-8BBC-68F5C0777609}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="F1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" customWidth="1"/>
-    <col min="8" max="8" width="33.6328125" customWidth="1"/>
-    <col min="9" max="9" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -916,30 +916,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -949,18 +949,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -970,18 +970,18 @@
       <c r="H3" s="2"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
@@ -991,18 +991,18 @@
       <c r="H4" s="2"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -1012,18 +1012,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -1033,18 +1033,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -1054,18 +1054,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -1075,18 +1075,18 @@
       <c r="H8" s="2"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -1096,18 +1096,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -1117,18 +1117,18 @@
       <c r="H10" s="2"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -1138,18 +1138,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
@@ -1159,18 +1159,18 @@
       <c r="H12" s="2"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -1180,18 +1180,18 @@
       <c r="H13" s="2"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -1201,18 +1201,18 @@
       <c r="H14" s="2"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -1222,18 +1222,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
@@ -1243,18 +1243,18 @@
       <c r="H16" s="2"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -1264,18 +1264,18 @@
       <c r="H17" s="2"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
@@ -1285,18 +1285,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
@@ -1306,18 +1306,18 @@
       <c r="H19" s="2"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -1327,18 +1327,18 @@
       <c r="H20" s="2"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
@@ -1348,18 +1348,18 @@
       <c r="H21" s="2"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -1369,18 +1369,18 @@
       <c r="H22" s="2"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -1390,18 +1390,18 @@
       <c r="H23" s="2"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
@@ -1411,18 +1411,18 @@
       <c r="H24" s="2"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
@@ -1432,18 +1432,18 @@
       <c r="H25" s="2"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
@@ -1453,18 +1453,18 @@
       <c r="H26" s="2"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
@@ -1474,18 +1474,18 @@
       <c r="H27" s="2"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
@@ -1495,18 +1495,18 @@
       <c r="H28" s="2"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -1516,18 +1516,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
@@ -1537,18 +1537,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
@@ -1558,18 +1558,18 @@
       <c r="H31" s="2"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
@@ -1579,18 +1579,18 @@
       <c r="H32" s="2"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
@@ -1614,20 +1614,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="37.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" customWidth="1"/>
-    <col min="9" max="9" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1644,30 +1644,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
@@ -1677,18 +1677,18 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -1698,18 +1698,18 @@
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
@@ -1719,18 +1719,18 @@
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
@@ -1740,18 +1740,18 @@
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -1761,18 +1761,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
@@ -1782,18 +1782,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -1803,18 +1803,18 @@
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
@@ -1824,18 +1824,18 @@
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1845,18 +1845,18 @@
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1866,18 +1866,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
@@ -1887,18 +1887,18 @@
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
@@ -1908,18 +1908,18 @@
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
@@ -1929,18 +1929,18 @@
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
@@ -1950,18 +1950,18 @@
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
@@ -1971,18 +1971,18 @@
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
@@ -1992,18 +1992,18 @@
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
@@ -2013,18 +2013,18 @@
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
@@ -2034,18 +2034,18 @@
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
@@ -2055,18 +2055,18 @@
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
@@ -2076,18 +2076,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
@@ -2097,18 +2097,18 @@
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
